--- a/code/historical_comparisons/2023_comparison/error_codes.xlsx
+++ b/code/historical_comparisons/2023_comparison/error_codes.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Reason Code</t>
   </si>
@@ -70,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">For instances where the number of hauls with weight data does not equal the number of hauls with count data, the way NA values are handled is slightly different when using gapindex to calculate variances. </t>
+  </si>
+  <si>
+    <t>Unresolved issue: These length bins were somehow excluded from the HAEHNR version of the sizecomp tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the HAEHNR version of the biomass tables, for strata where the hauls only collect weight data, the POPULATION_COUNT is incorrectly assumed to be zero with zero variance or NA with zero variance. </t>
   </si>
 </sst>
 </file>
@@ -393,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,9 +490,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -520,6 +528,14 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
